--- a/users/People.xlsx
+++ b/users/People.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batianusrey/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batianusrey/Documents/Workspaces/Disruption Labs/Studnet/users/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
-    <sheet name="Personas" sheetId="1" r:id="rId1"/>
+    <sheet name="Propuesta" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Nombre(s):</t>
   </si>
@@ -561,10 +562,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="53" width="9.19921875" style="3" customWidth="1"/>
+    <col min="54" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -779,7 +998,6 @@
     <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
